--- a/data/trans_orig/P1433-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB066A4-93C6-45B5-8181-8267C38A0B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D6C4E8-CE8A-4AA7-84BD-22AE64C75976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00FC38D8-F99A-47B0-9BF3-A0308402EA54}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3D48F33-B400-42A9-86EA-A370247FD13F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="105">
   <si>
     <t>Población con diagnóstico de esterilidad en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -94,241 +94,247 @@
     <t>0,39%</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>99,96%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>99,77%</t>
   </si>
   <si>
     <t>99,97%</t>
   </si>
   <si>
     <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
   </si>
   <si>
     <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
@@ -758,7 +764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB14415-AB31-438F-9888-37B6FF73F1E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45556E20-EF0A-4928-8900-CAEBEFE46F1E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -951,10 +957,10 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -963,19 +969,19 @@
         <v>5200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>908</v>
@@ -984,13 +990,13 @@
         <v>974643</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7">
         <v>1241</v>
@@ -999,13 +1005,13 @@
         <v>1331488</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2149</v>
@@ -1014,13 +1020,13 @@
         <v>2306131</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,13 +1041,13 @@
         <v>974643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>1246</v>
@@ -1050,13 +1056,13 @@
         <v>1336688</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>2154</v>
@@ -1065,18 +1071,18 @@
         <v>2311331</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1094,37 +1100,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1139,13 +1145,13 @@
         <v>4769</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1154,13 +1160,13 @@
         <v>3085</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1172,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>40</v>
@@ -1181,7 +1187,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7">
         <v>1851</v>
@@ -1196,7 +1202,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>1630</v>
@@ -1217,10 +1223,10 @@
         <v>3481</v>
       </c>
       <c r="N10" s="7">
-        <v>3710696</v>
+        <v>3710695</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>46</v>
@@ -1241,13 +1247,13 @@
         <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>1633</v>
@@ -1256,28 +1262,28 @@
         <v>1754592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1315,7 +1321,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1375,7 +1381,7 @@
         <v>2021</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
@@ -1387,7 +1393,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
         <v>438</v>
@@ -1396,13 +1402,13 @@
         <v>481181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="7">
         <v>409</v>
@@ -1417,7 +1423,7 @@
         <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
         <v>847</v>
@@ -1426,13 +1432,13 @@
         <v>936828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1453,13 @@
         <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="7">
         <v>411</v>
@@ -1462,13 +1468,13 @@
         <v>457668</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="7">
         <v>849</v>
@@ -1477,13 +1483,13 @@
         <v>938849</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1521,7 +1527,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1551,13 +1557,13 @@
         <v>4769</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -1566,13 +1572,13 @@
         <v>10306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -1581,19 +1587,19 @@
         <v>15075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
         <v>3197</v>
@@ -1602,13 +1608,13 @@
         <v>3415013</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H18" s="7">
         <v>3280</v>
@@ -1617,13 +1623,13 @@
         <v>3538642</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M18" s="7">
         <v>6477</v>
@@ -1632,13 +1638,13 @@
         <v>6953655</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1659,13 @@
         <v>3419782</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="7">
         <v>3290</v>
@@ -1668,13 +1674,13 @@
         <v>3548948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="7">
         <v>6492</v>
@@ -1683,18 +1689,18 @@
         <v>6968730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957D784A-3CC7-4A7D-B4E6-B64D724566FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B31C98-DF1E-4F64-9302-2A84D07028D9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1730,7 +1736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1843,7 +1849,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1858,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1873,7 +1879,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1894,13 @@
         <v>890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1903,13 +1909,13 @@
         <v>1020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1918,19 +1924,19 @@
         <v>1910</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>761</v>
@@ -1939,13 +1945,13 @@
         <v>753457</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>891</v>
@@ -1954,13 +1960,13 @@
         <v>993640</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>1652</v>
@@ -1969,13 +1975,13 @@
         <v>1747097</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +1996,13 @@
         <v>754347</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>892</v>
@@ -2005,13 +2011,13 @@
         <v>994660</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>1654</v>
@@ -2020,18 +2026,18 @@
         <v>1749007</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2049,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2064,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2079,7 +2085,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2100,13 @@
         <v>912</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2109,13 +2115,13 @@
         <v>1020</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -2124,19 +2130,19 @@
         <v>1932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7">
         <v>1951</v>
@@ -2145,13 +2151,13 @@
         <v>2075473</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7">
         <v>1907</v>
@@ -2160,13 +2166,13 @@
         <v>1987280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" s="7">
         <v>3858</v>
@@ -2175,13 +2181,13 @@
         <v>4062753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2202,13 @@
         <v>2076385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>1908</v>
@@ -2211,13 +2217,13 @@
         <v>1988300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>3860</v>
@@ -2226,13 +2232,13 @@
         <v>4064685</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,7 +2261,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2270,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2285,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2306,13 @@
         <v>1072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2321,7 +2327,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2330,19 +2336,19 @@
         <v>1072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
         <v>500</v>
@@ -2351,13 +2357,13 @@
         <v>545814</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>526</v>
@@ -2366,13 +2372,13 @@
         <v>549140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>1026</v>
@@ -2381,13 +2387,13 @@
         <v>1094954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2408,13 @@
         <v>546886</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="7">
         <v>526</v>
@@ -2417,13 +2423,13 @@
         <v>549140</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="7">
         <v>1027</v>
@@ -2432,13 +2438,13 @@
         <v>1096026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,7 +2467,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2476,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2512,7 +2518,7 @@
         <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2521,13 +2527,13 @@
         <v>2040</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2536,19 +2542,19 @@
         <v>4914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
         <v>3212</v>
@@ -2557,13 +2563,13 @@
         <v>3374744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>3324</v>
@@ -2575,10 +2581,10 @@
         <v>45</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>6536</v>
@@ -2587,13 +2593,13 @@
         <v>6904804</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2614,13 @@
         <v>3377618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="7">
         <v>3326</v>
@@ -2623,13 +2629,13 @@
         <v>3532100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="7">
         <v>6541</v>
@@ -2638,18 +2644,18 @@
         <v>6909718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D561BC9-780E-44AC-815D-214EE47A66B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA795BC5-2144-4C5A-A667-41964FE0EEEC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2685,7 +2691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2792,13 +2798,13 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7">
         <v>1427</v>
@@ -2807,13 +2813,13 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="7">
         <v>2118</v>
@@ -2822,13 +2828,13 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2864,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2885,7 +2891,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2900,7 +2906,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2915,7 +2921,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2945,13 +2951,13 @@
         <v>541634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>1427</v>
@@ -2960,13 +2966,13 @@
         <v>835953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>2118</v>
@@ -2975,18 +2981,18 @@
         <v>1377586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2998,28 +3004,28 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>4913</v>
@@ -3028,13 +3034,13 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3070,7 +3076,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3085,13 +3091,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3106,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3121,7 +3127,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3136,7 +3142,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,28 +3157,28 @@
         <v>2162022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>4913</v>
@@ -3181,13 +3187,13 @@
         <v>4411543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3210,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7">
         <v>1004</v>
@@ -3219,13 +3225,13 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="7">
         <v>1685</v>
@@ -3234,13 +3240,13 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,7 +3267,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3276,7 +3282,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3291,13 +3297,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3312,7 +3318,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3327,7 +3333,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3342,7 +3348,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3363,13 @@
         <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="7">
         <v>1004</v>
@@ -3372,13 +3378,13 @@
         <v>713886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="7">
         <v>1685</v>
@@ -3387,13 +3393,13 @@
         <v>1386926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,16 +3413,16 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
         <v>5352</v>
@@ -3425,28 +3431,28 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,7 +3473,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3482,7 +3488,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3497,13 +3503,13 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3518,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3533,7 +3539,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3548,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,16 +3566,16 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="7">
         <v>5352</v>
@@ -3578,33 +3584,33 @@
         <v>3799360</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="7">
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1433-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D6C4E8-CE8A-4AA7-84BD-22AE64C75976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC16828B-4B3C-4B38-A47C-EEB087F150F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3D48F33-B400-42A9-86EA-A370247FD13F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{755301F5-B563-479F-9223-6E5BD3094D96}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="104">
   <si>
     <t>Población con diagnóstico de esterilidad en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -94,259 +94,256 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -764,7 +761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45556E20-EF0A-4928-8900-CAEBEFE46F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A096B-D857-49E6-8402-C275DE4C823D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1178,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,10 +1193,10 @@
         <v>1959188</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1211,28 +1208,28 @@
         <v>1751507</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>3481</v>
       </c>
       <c r="N10" s="7">
-        <v>3710695</v>
+        <v>3710696</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,7 +1271,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -1288,7 +1285,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1306,22 +1303,22 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1357,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1366,7 +1363,7 @@
         <v>2021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
@@ -1590,10 +1587,10 @@
         <v>19</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1605,13 @@
         <v>3415013</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H18" s="7">
         <v>3280</v>
@@ -1623,28 +1620,28 @@
         <v>3538642</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M18" s="7">
         <v>6477</v>
       </c>
       <c r="N18" s="7">
-        <v>6953655</v>
+        <v>6953654</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,7 +1683,7 @@
         <v>6492</v>
       </c>
       <c r="N19" s="7">
-        <v>6968730</v>
+        <v>6968729</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>24</v>
@@ -1700,7 +1697,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B31C98-DF1E-4F64-9302-2A84D07028D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867792B5-A89B-41B3-8570-E6308398EFC0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1736,7 +1733,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1849,7 +1846,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1900,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1915,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1924,7 +1921,7 @@
         <v>1910</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -1945,10 +1942,10 @@
         <v>753457</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -1960,10 +1957,10 @@
         <v>993640</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -1975,10 +1972,10 @@
         <v>1747097</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -2100,13 +2097,13 @@
         <v>912</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2121,7 +2118,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -2136,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,10 +2148,10 @@
         <v>2075473</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -2166,10 +2163,10 @@
         <v>1987280</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -2181,10 +2178,10 @@
         <v>4062753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>22</v>
@@ -2243,7 +2240,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2261,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2276,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2291,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2303,13 @@
         <v>1072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2327,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2342,7 +2339,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,10 +2354,10 @@
         <v>545814</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -2375,7 +2372,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -2387,10 +2384,10 @@
         <v>1094954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>22</v>
@@ -2518,7 +2515,7 @@
         <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2533,7 +2530,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2542,13 +2539,13 @@
         <v>4914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,10 +2563,10 @@
         <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>3324</v>
@@ -2578,10 +2575,10 @@
         <v>3530060</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>22</v>
@@ -2593,13 +2590,13 @@
         <v>6904804</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,7 +2652,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA795BC5-2144-4C5A-A667-41964FE0EEEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0F6240-8314-420C-A66D-27748E3D30F5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2691,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2801,7 +2798,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -2816,7 +2813,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -2855,22 +2852,22 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2906,22 +2903,22 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3007,7 +3004,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -3022,7 +3019,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -3037,7 +3034,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -3076,7 +3073,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3091,7 +3088,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3124,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3142,7 +3139,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,7 +3195,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3213,7 +3210,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -3228,7 +3225,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -3243,7 +3240,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -3267,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3282,7 +3279,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3297,7 +3294,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3333,7 +3330,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3348,7 +3345,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3416,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -3434,7 +3431,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -3449,7 +3446,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -3488,7 +3485,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3503,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3554,7 +3551,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,7 +3607,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1433-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C40115C-26B3-4777-9090-30EC667446C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{674AB6B9-8E9C-4B62-B71E-A7B7F1CA2C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90719138-44C2-4C41-BAFC-E2B01CA97737}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{38268B5B-262A-4DFD-8FD8-8AFF9B4BF9DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67FEA89-3A02-41CA-90C4-A9AD975BB479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F27DEC-E011-43EB-A798-1E9F2CF95922}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1081,7 +1081,7 @@
         <v>3481</v>
       </c>
       <c r="N8" s="7">
-        <v>3710696</v>
+        <v>3710695</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>22</v>
@@ -1132,7 +1132,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -1391,7 +1391,7 @@
         <v>6477</v>
       </c>
       <c r="N14" s="7">
-        <v>6953655</v>
+        <v>6953654</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>27</v>
@@ -1442,7 +1442,7 @@
         <v>6492</v>
       </c>
       <c r="N15" s="7">
-        <v>6968730</v>
+        <v>6968729</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -1475,7 +1475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A88D3C-7B85-4883-85F8-0E0839045CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EA4F62-EAAC-4E32-B23A-B569FD653055}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1987,7 +1987,7 @@
         <v>1026</v>
       </c>
       <c r="N11" s="7">
-        <v>1094954</v>
+        <v>1094955</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>44</v>
@@ -2038,7 +2038,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
